--- a/Bio-Reactor/BioReactor.xlsx
+++ b/Bio-Reactor/BioReactor.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Matlab Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Matlab Projects\Bio-Reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA660A96-D0E4-45A4-9F06-04FE2F2CE738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7465C-4FD7-4D98-9B43-479ECB87B3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B005AF8F-B8CC-42B1-B98C-7262E94CB87B}"/>
   </bookViews>
   <sheets>
     <sheet name="bioReactor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">bioReactor!$D$5:$D$50</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">bioReactor!$D$5:$D$50</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -173,13 +174,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color theme="1"/>
         </top>
@@ -187,6 +181,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -232,13 +233,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color theme="1"/>
         </top>
@@ -246,6 +240,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -291,13 +292,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color theme="1"/>
         </top>
@@ -305,6 +299,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1106,6 +1107,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Batch</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1168,6 +1229,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Yield</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1217,6 +1333,70 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84238936690736899"/>
+          <c:y val="4.3650793650793648E-2"/>
+          <c:w val="0.13039572178175746"/>
+          <c:h val="9.1022059742532177E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1226,6 +1406,1324 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bioReactor!$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Yield %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bioReactor!$S$5:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bioReactor!$V$5:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.9863740960112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.237186609509102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.848388413217002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.857617716605603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.399282592868602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.119344003643107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.683871575702099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.1349199485132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.680246809461707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.703145618543104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D04-4F45-BF41-EBF48E10B80B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="438509440"/>
+        <c:axId val="259996592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438509440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>glucose conc. (x1) (g/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259996592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="259996592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Yield %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438509440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bioReactor!$V$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Yield %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bioReactor!$T$18:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bioReactor!$V$18:$V$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>89.688240320857005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.943745720716507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.068850894201901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.636414511205999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.722809276235793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.886830917981797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.635046764983699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.511147176673404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.314996848410999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.266515387627706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2415-4D98-AFAF-3A3F6933B553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="449428880"/>
+        <c:axId val="259992752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="449428880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>biomass conc. (x2) (g/L)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259992752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="259992752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Yield %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449428880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bioReactor!$V$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Yield %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bioReactor!$U$31:$U$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bioReactor!$V$31:$V$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34.382266141222502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.464474111486702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.781385320625297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.799261446387199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.911147192466103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.147060814411304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.286985639505602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.495118829047996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.194295935178303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.788905353802605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC17-4850-A45C-CC2D19BF19C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="438507120"/>
+        <c:axId val="260267744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438507120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>DO (x3) (mg/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260267744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="260267744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predicted Yield %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438507120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1301,6 +2799,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1817,20 +3435,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438148</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247648</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1857,540 +5023,115 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E255BCB-2F1E-1CA4-D6C2-E97ED6C86715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5A8C97-381A-A4F8-382B-EA19FDEE4758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1062037</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58A6C73-5282-8FB3-A4FF-C23906A2A95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="bioReactor"/>
-      <sheetName val="catalyticReactor"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>gluconic acid yield (Y1) (%)</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>Predicted Yield %</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-          <cell r="G5">
-            <v>5.9</v>
-          </cell>
-          <cell r="H5">
-            <v>5.9001193215086198</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>2</v>
-          </cell>
-          <cell r="G6">
-            <v>29.42</v>
-          </cell>
-          <cell r="H6">
-            <v>29.420889118851498</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>3</v>
-          </cell>
-          <cell r="G7">
-            <v>20.76</v>
-          </cell>
-          <cell r="H7">
-            <v>21.359341472097</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>4</v>
-          </cell>
-          <cell r="G8">
-            <v>35.51</v>
-          </cell>
-          <cell r="H8">
-            <v>35.509991850593899</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>5</v>
-          </cell>
-          <cell r="G9">
-            <v>35.159999999999997</v>
-          </cell>
-          <cell r="H9">
-            <v>35.159259581391701</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>6</v>
-          </cell>
-          <cell r="G10">
-            <v>27.77</v>
-          </cell>
-          <cell r="H10">
-            <v>28.004540054499099</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>7</v>
-          </cell>
-          <cell r="G11">
-            <v>34.479999999999997</v>
-          </cell>
-          <cell r="H11">
-            <v>34.479194795174301</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>8</v>
-          </cell>
-          <cell r="G12">
-            <v>57.86</v>
-          </cell>
-          <cell r="H12">
-            <v>57.860741280757999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>9</v>
-          </cell>
-          <cell r="G13">
-            <v>49.32</v>
-          </cell>
-          <cell r="H13">
-            <v>49.319245282227797</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>10</v>
-          </cell>
-          <cell r="G14">
-            <v>78.989999999999995</v>
-          </cell>
-          <cell r="H14">
-            <v>78.988220433112303</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>11</v>
-          </cell>
-          <cell r="G15">
-            <v>89.48</v>
-          </cell>
-          <cell r="H15">
-            <v>89.475600805431796</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>12</v>
-          </cell>
-          <cell r="G16">
-            <v>94.5</v>
-          </cell>
-          <cell r="H16">
-            <v>94.501065906890005</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>13</v>
-          </cell>
-          <cell r="G17">
-            <v>89.63</v>
-          </cell>
-          <cell r="H17">
-            <v>89.629852276056496</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>14</v>
-          </cell>
-          <cell r="G18">
-            <v>79.05</v>
-          </cell>
-          <cell r="H18">
-            <v>79.534258175392907</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>15</v>
-          </cell>
-          <cell r="G19">
-            <v>94.58</v>
-          </cell>
-          <cell r="H19">
-            <v>94.5800910412148</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>16</v>
-          </cell>
-          <cell r="G20">
-            <v>93.41</v>
-          </cell>
-          <cell r="H20">
-            <v>94.368080167936199</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>17</v>
-          </cell>
-          <cell r="G21">
-            <v>91.26</v>
-          </cell>
-          <cell r="H21">
-            <v>91.257976043160099</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>18</v>
-          </cell>
-          <cell r="G22">
-            <v>93.67</v>
-          </cell>
-          <cell r="H22">
-            <v>92.247669993001793</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>19</v>
-          </cell>
-          <cell r="G23">
-            <v>92.69</v>
-          </cell>
-          <cell r="H23">
-            <v>91.8112241836115</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>20</v>
-          </cell>
-          <cell r="G24">
-            <v>93.3</v>
-          </cell>
-          <cell r="H24">
-            <v>93.322554513673495</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>21</v>
-          </cell>
-          <cell r="G25">
-            <v>88.13</v>
-          </cell>
-          <cell r="H25">
-            <v>88.129465667283597</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>22</v>
-          </cell>
-          <cell r="G26">
-            <v>92.7</v>
-          </cell>
-          <cell r="H26">
-            <v>91.763089305642893</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>23</v>
-          </cell>
-          <cell r="G27">
-            <v>20.04</v>
-          </cell>
-          <cell r="H27">
-            <v>20.048978581458002</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>24</v>
-          </cell>
-          <cell r="G28">
-            <v>6.13</v>
-          </cell>
-          <cell r="H28">
-            <v>6.13022878373084</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>25</v>
-          </cell>
-          <cell r="G29">
-            <v>17.579999999999998</v>
-          </cell>
-          <cell r="H29">
-            <v>19.2141961050616</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>26</v>
-          </cell>
-          <cell r="G30">
-            <v>7.2</v>
-          </cell>
-          <cell r="H30">
-            <v>7.20027488133689</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>27</v>
-          </cell>
-          <cell r="G31">
-            <v>35.090000000000003</v>
-          </cell>
-          <cell r="H31">
-            <v>32.578316296186003</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>28</v>
-          </cell>
-          <cell r="G32">
-            <v>24.12</v>
-          </cell>
-          <cell r="H32">
-            <v>24.119225229746402</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>29</v>
-          </cell>
-          <cell r="G33">
-            <v>40.99</v>
-          </cell>
-          <cell r="H33">
-            <v>39.145071632952401</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>30</v>
-          </cell>
-          <cell r="G34">
-            <v>41.33</v>
-          </cell>
-          <cell r="H34">
-            <v>41.329521752922901</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>31</v>
-          </cell>
-          <cell r="G35">
-            <v>41.25</v>
-          </cell>
-          <cell r="H35">
-            <v>41.251584571726099</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>32</v>
-          </cell>
-          <cell r="G36">
-            <v>68.22</v>
-          </cell>
-          <cell r="H36">
-            <v>67.464240817833399</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>33</v>
-          </cell>
-          <cell r="G37">
-            <v>58.82</v>
-          </cell>
-          <cell r="H37">
-            <v>58.817182062445703</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>34</v>
-          </cell>
-          <cell r="G38">
-            <v>58.03</v>
-          </cell>
-          <cell r="H38">
-            <v>58.033271123753003</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>35</v>
-          </cell>
-          <cell r="G39">
-            <v>79.61</v>
-          </cell>
-          <cell r="H39">
-            <v>79.612018001664694</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>36</v>
-          </cell>
-          <cell r="G40">
-            <v>68.38</v>
-          </cell>
-          <cell r="H40">
-            <v>68.379027140558506</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>37</v>
-          </cell>
-          <cell r="G41">
-            <v>93.4</v>
-          </cell>
-          <cell r="H41">
-            <v>93.401353796831799</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>38</v>
-          </cell>
-          <cell r="G42">
-            <v>56.3</v>
-          </cell>
-          <cell r="H42">
-            <v>60.265412728966503</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>39</v>
-          </cell>
-          <cell r="G43">
-            <v>88.63</v>
-          </cell>
-          <cell r="H43">
-            <v>88.628120944477601</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>40</v>
-          </cell>
-          <cell r="G44">
-            <v>91.94</v>
-          </cell>
-          <cell r="H44">
-            <v>91.938546208542704</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>41</v>
-          </cell>
-          <cell r="G45">
-            <v>93.68</v>
-          </cell>
-          <cell r="H45">
-            <v>93.687199356598597</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>42</v>
-          </cell>
-          <cell r="G46">
-            <v>89.09</v>
-          </cell>
-          <cell r="H46">
-            <v>89.089468941020499</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>43</v>
-          </cell>
-          <cell r="G47">
-            <v>94.5</v>
-          </cell>
-          <cell r="H47">
-            <v>94.495898077351299</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>44</v>
-          </cell>
-          <cell r="G48">
-            <v>93.82</v>
-          </cell>
-          <cell r="H48">
-            <v>93.667089253929305</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>45</v>
-          </cell>
-          <cell r="G49">
-            <v>93.53</v>
-          </cell>
-          <cell r="H49">
-            <v>93.671006248654805</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>46</v>
-          </cell>
-          <cell r="G50">
-            <v>93.54</v>
-          </cell>
-          <cell r="H50">
-            <v>93.520715465660899</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2424,7 +5165,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BA810EE-B49C-4221-A03A-DD304E3F3D10}" name="Table4" displayName="Table4" ref="R4:V14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BA810EE-B49C-4221-A03A-DD304E3F3D10}" name="Table4" displayName="Table4" ref="R4:V14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="R4:V14" xr:uid="{26943FB4-0D77-4EC3-9ACE-02BF40F306EE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2452,7 +5193,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8F782B7-5177-4E79-801F-FA36F014224E}" name="Table46" displayName="Table46" ref="R17:V27" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8F782B7-5177-4E79-801F-FA36F014224E}" name="Table46" displayName="Table46" ref="R17:V27" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="R17:V27" xr:uid="{89FFEA19-EA93-4858-9030-1AF43BC7DEC6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2480,7 +5221,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B68E3771-8677-49AA-8C7D-95A43134EB7C}" name="Table467" displayName="Table467" ref="R30:V40" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B68E3771-8677-49AA-8C7D-95A43134EB7C}" name="Table467" displayName="Table467" ref="R30:V40" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="R30:V40" xr:uid="{50F1EF02-DD33-4A60-A0D2-A2FBBACF4F15}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2806,8 +5547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271A2CD8-9F22-49CB-BA00-131FE1F0C2C5}">
   <dimension ref="C4:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA76" sqref="AA76"/>
+    <sheetView tabSelected="1" topLeftCell="O25" workbookViewId="0">
+      <selection activeCell="AC49" sqref="AC49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
